--- a/biology/Zoologie/Ablepharus_bivittatus/Ablepharus_bivittatus.xlsx
+++ b/biology/Zoologie/Ablepharus_bivittatus/Ablepharus_bivittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Abléphare à deux bandes (Ablepharus bivittatus) est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Abléphare à deux bandes (Ablepharus bivittatus) est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est ovipare[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est ovipare.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de 2 300 à 3 300 m d'altitude en Turquie, en Arménie, en Azerbaïdjan, en Iran et au Turkménistan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de 2 300 à 3 300 m d'altitude en Turquie, en Arménie, en Azerbaïdjan, en Iran et au Turkménistan.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Ablepharus bivittatus lindbergi décrite par Wettstein en 1960[2] a été élevée au rang d'espèce par Yeriomtschenko et Shcherbak[3].
-L'épithète spécifique, bivittatus, est formé du latin bi-, « deux », et de vitta, « ligne » ou « rayure », en référence aux deux bandes sombres de l'animal[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Ablepharus bivittatus lindbergi décrite par Wettstein en 1960 a été élevée au rang d'espèce par Yeriomtschenko et Shcherbak.
+L'épithète spécifique, bivittatus, est formé du latin bi-, « deux », et de vitta, « ligne » ou « rayure », en référence aux deux bandes sombres de l'animal.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ménétries, 1832 : Catalogue raisonné des objets de zoologie recueillis dans un voyage au Caucase et jusqu’aux frontières actuelles de la Perse. L’Académie Impériale des Sciences. Saint-Pétersbourg, p. 1-271 (texte intégral).</t>
         </is>
